--- a/teaching/traditional_assets/database/data/pakistan/pakistan_publishing_newspapers.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_publishing_newspapers.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.16</v>
+        <v>-0.162</v>
       </c>
       <c r="G2">
-        <v>-1.001183431952663</v>
+        <v>-0.239766081871345</v>
       </c>
       <c r="H2">
-        <v>-1.001183431952663</v>
+        <v>-0.239766081871345</v>
       </c>
       <c r="I2">
-        <v>-1.538461538461539</v>
+        <v>-0.5345029239766083</v>
       </c>
       <c r="J2">
-        <v>-1.538461538461539</v>
+        <v>-0.5345029239766083</v>
       </c>
       <c r="K2">
-        <v>-1.53</v>
+        <v>-0.769</v>
       </c>
       <c r="L2">
-        <v>-1.810650887573965</v>
+        <v>-0.8994152046783626</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="V2">
-        <v>0.004918032786885246</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="W2">
-        <v>0.3893129770992366</v>
+        <v>0.1615546218487395</v>
       </c>
       <c r="X2">
-        <v>0.2408124781887984</v>
+        <v>0.170317483842711</v>
       </c>
       <c r="Y2">
-        <v>0.1485004989104383</v>
+        <v>-0.008762861993971527</v>
       </c>
       <c r="Z2">
-        <v>-0.6158892128279881</v>
+        <v>-0.3280890253261705</v>
       </c>
       <c r="AA2">
-        <v>0.9475218658892126</v>
+        <v>0.1753645433614736</v>
       </c>
       <c r="AB2">
-        <v>0.1282473050563976</v>
+        <v>0.1100380145377869</v>
       </c>
       <c r="AC2">
-        <v>0.8192745608328149</v>
+        <v>0.06532652882368666</v>
       </c>
       <c r="AD2">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AG2">
-        <v>2.154</v>
+        <v>2.031</v>
       </c>
       <c r="AH2">
-        <v>0.6390532544378699</v>
+        <v>0.53125</v>
       </c>
       <c r="AI2">
-        <v>-0.8307692307692309</v>
+        <v>-0.6415094339622642</v>
       </c>
       <c r="AJ2">
-        <v>0.6384113811499703</v>
+        <v>0.5301487862176977</v>
       </c>
       <c r="AK2">
-        <v>-0.8265541059094401</v>
+        <v>-0.6368767638758233</v>
       </c>
       <c r="AL2">
-        <v>0.364</v>
+        <v>0.295</v>
       </c>
       <c r="AM2">
-        <v>0.364</v>
+        <v>0.295</v>
       </c>
       <c r="AN2">
-        <v>-2.25705329153605</v>
+        <v>-10.90909090909091</v>
       </c>
       <c r="AO2">
-        <v>-3.571428571428572</v>
+        <v>-1.549152542372882</v>
       </c>
       <c r="AP2">
-        <v>-2.250783699059562</v>
+        <v>-10.86096256684492</v>
       </c>
       <c r="AQ2">
-        <v>-3.571428571428572</v>
+        <v>-1.549152542372882</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.16</v>
+        <v>-0.162</v>
       </c>
       <c r="G3">
-        <v>-1.001183431952663</v>
+        <v>-0.239766081871345</v>
       </c>
       <c r="H3">
-        <v>-1.001183431952663</v>
+        <v>-0.239766081871345</v>
       </c>
       <c r="I3">
-        <v>-1.538461538461539</v>
+        <v>-0.5345029239766083</v>
       </c>
       <c r="J3">
-        <v>-1.538461538461539</v>
+        <v>-0.5345029239766083</v>
       </c>
       <c r="K3">
-        <v>-1.53</v>
+        <v>-0.769</v>
       </c>
       <c r="L3">
-        <v>-1.810650887573965</v>
+        <v>-0.8994152046783626</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="V3">
-        <v>0.004918032786885246</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="W3">
-        <v>0.3893129770992366</v>
+        <v>0.1615546218487395</v>
       </c>
       <c r="X3">
-        <v>0.2408124781887984</v>
+        <v>0.170317483842711</v>
       </c>
       <c r="Y3">
-        <v>0.1485004989104383</v>
+        <v>-0.008762861993971527</v>
       </c>
       <c r="Z3">
-        <v>-0.6158892128279881</v>
+        <v>-0.3280890253261705</v>
       </c>
       <c r="AA3">
-        <v>0.9475218658892126</v>
+        <v>0.1753645433614736</v>
       </c>
       <c r="AB3">
-        <v>0.1282473050563976</v>
+        <v>0.1100380145377869</v>
       </c>
       <c r="AC3">
-        <v>0.8192745608328149</v>
+        <v>0.06532652882368666</v>
       </c>
       <c r="AD3">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AG3">
-        <v>2.154</v>
+        <v>2.031</v>
       </c>
       <c r="AH3">
-        <v>0.6390532544378699</v>
+        <v>0.53125</v>
       </c>
       <c r="AI3">
-        <v>-0.8307692307692309</v>
+        <v>-0.6415094339622642</v>
       </c>
       <c r="AJ3">
-        <v>0.6384113811499703</v>
+        <v>0.5301487862176977</v>
       </c>
       <c r="AK3">
-        <v>-0.8265541059094401</v>
+        <v>-0.6368767638758233</v>
       </c>
       <c r="AL3">
-        <v>0.364</v>
+        <v>0.295</v>
       </c>
       <c r="AM3">
-        <v>0.364</v>
+        <v>0.295</v>
       </c>
       <c r="AN3">
-        <v>-2.25705329153605</v>
+        <v>-10.90909090909091</v>
       </c>
       <c r="AO3">
-        <v>-3.571428571428572</v>
+        <v>-1.549152542372882</v>
       </c>
       <c r="AP3">
-        <v>-2.250783699059562</v>
+        <v>-10.86096256684492</v>
       </c>
       <c r="AQ3">
-        <v>-3.571428571428572</v>
+        <v>-1.549152542372882</v>
       </c>
     </row>
   </sheetData>
